--- a/sql/nclass.xlsx
+++ b/sql/nclass.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="nclass" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -948,404 +948,551 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F22"/>
+      <selection activeCell="H2" sqref="H2:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="str">
-        <f>"UPDATE nclass SET classcat = '"&amp;B2&amp; "', pgmcat = '" &amp; C2 &amp; "', agecat = '" &amp; D2 &amp;"' WHERE nclass.class = '" &amp; A2 &amp;"'"</f>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"UPDATE nclass SET classcat = '"&amp;C2&amp; "', pgmcat = '" &amp; D2 &amp; "', agecat = '" &amp; E2 &amp;"' WHERE nclass.class = '" &amp; B2 &amp;"'"</f>
         <v>UPDATE nclass SET classcat = 'karate', pgmcat = 'adult', agecat = 'adult' WHERE nclass.class = 'Adult'</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="H2" t="str">
+        <f>"update nclasspays set classseq = " &amp; A2 &amp; " where class = '" &amp; B2 &amp; "';"</f>
+        <v>update nclasspays set classseq = 1 where class = 'Adult';</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F22" si="0">"UPDATE nclass SET classcat = '"&amp;B3&amp; "', pgmcat = '" &amp; C3 &amp; "', agecat = '" &amp; D3 &amp;"' WHERE nclass.class = '" &amp; A3 &amp;"'"</f>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G22" si="0">"UPDATE nclass SET classcat = '"&amp;C3&amp; "', pgmcat = '" &amp; D3 &amp; "', agecat = '" &amp; E3 &amp;"' WHERE nclass.class = '" &amp; B3 &amp;"'"</f>
         <v>UPDATE nclass SET classcat = 'special', pgmcat = 'other', agecat = 'children' WHERE nclass.class = 'After School'</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H22" si="1">"update nclasspays set classseq = " &amp; A3 &amp; " where class = '" &amp; B3 &amp; "';"</f>
+        <v>update nclasspays set classseq = 2 where class = 'After School';</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="str">
+      <c r="G4" t="str">
         <f t="shared" si="0"/>
         <v>UPDATE nclass SET classcat = 'karate', pgmcat = 'basic or dragon', agecat = 'children' WHERE nclass.class = 'Basic Dragon'</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>update nclasspays set classseq = 3 where class = 'Basic Dragon';</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="str">
+      <c r="G5" t="str">
         <f t="shared" si="0"/>
         <v>UPDATE nclass SET classcat = 'karate', pgmcat = 'basic or leopard', agecat = 'children' WHERE nclass.class = 'Basic Leopard'</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>update nclasspays set classseq = 4 where class = 'Basic Leopard';</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="str">
+      <c r="G6" t="str">
         <f t="shared" si="0"/>
         <v>UPDATE nclass SET classcat = 'karate', pgmcat = 'bbt', agecat = 'children' WHERE nclass.class = 'BBT - Multiclasses'</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>update nclasspays set classseq = 5 where class = 'BBT - Multiclasses';</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" t="str">
+      <c r="G7" t="str">
         <f t="shared" si="0"/>
         <v>UPDATE nclass SET classcat = 'karate', pgmcat = 'bbt1', agecat = 'children' WHERE nclass.class = 'BBT1 - Purple - B/G'</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>update nclasspays set classseq = 6 where class = 'BBT1 - Purple - B/G';</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="F8" t="str">
+      <c r="G8" t="str">
         <f t="shared" si="0"/>
         <v>UPDATE nclass SET classcat = 'karate', pgmcat = 'bbt1 or leopard', agecat = 'children' WHERE nclass.class = 'BBT1 Leopard'</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>update nclasspays set classseq = 7 where class = 'BBT1 Leopard';</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>27</v>
       </c>
-      <c r="F9" t="str">
+      <c r="G9" t="str">
         <f t="shared" si="0"/>
         <v>UPDATE nclass SET classcat = 'karate', pgmcat = 'bbt2', agecat = 'children' WHERE nclass.class = 'BBT2 - Green'</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>update nclasspays set classseq = 8 where class = 'BBT2 - Green';</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>36</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>27</v>
       </c>
-      <c r="F10" t="str">
+      <c r="G10" t="str">
         <f t="shared" si="0"/>
         <v>UPDATE nclass SET classcat = 'karate', pgmcat = 'bbt3', agecat = 'children' WHERE nclass.class = 'BBT3 - Brown'</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v>update nclasspays set classseq = 9 where class = 'BBT3 - Brown';</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>38</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>3</v>
       </c>
-      <c r="F11" t="str">
+      <c r="G11" t="str">
         <f t="shared" si="0"/>
         <v>UPDATE nclass SET classcat = 'karate', pgmcat = 'black', agecat = 'adult' WHERE nclass.class = 'Blackbelt Adult'</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v>update nclasspays set classseq = 10 where class = 'Blackbelt Adult';</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>38</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>27</v>
       </c>
-      <c r="F12" t="str">
+      <c r="G12" t="str">
         <f t="shared" si="0"/>
         <v>UPDATE nclass SET classcat = 'karate', pgmcat = 'black', agecat = 'children' WHERE nclass.class = 'Blackbelt Jr'</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v>update nclasspays set classseq = 11 where class = 'Blackbelt Jr';</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>29</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>28</v>
       </c>
-      <c r="F13" t="str">
+      <c r="G13" t="str">
         <f t="shared" si="0"/>
         <v>UPDATE nclass SET classcat = 'special', pgmcat = 'other', agecat = 'children or adult' WHERE nclass.class = 'Inactive'</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v>update nclasspays set classseq = 12 where class = 'Inactive';</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>29</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>28</v>
       </c>
-      <c r="F14" t="str">
+      <c r="G14" t="str">
         <f t="shared" si="0"/>
         <v>UPDATE nclass SET classcat = 'special', pgmcat = 'other', agecat = 'children or adult' WHERE nclass.class = 'Injured'</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v>update nclasspays set classseq = 13 where class = 'Injured';</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>39</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>29</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>28</v>
       </c>
-      <c r="F15" t="str">
+      <c r="G15" t="str">
         <f t="shared" si="0"/>
         <v>UPDATE nclass SET classcat = 'fitness', pgmcat = 'other', agecat = 'children or adult' WHERE nclass.class = 'Kickboxing'</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v>update nclasspays set classseq = 14 where class = 'Kickboxing';</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>31</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>3</v>
       </c>
-      <c r="F16" t="str">
+      <c r="G16" t="str">
         <f t="shared" si="0"/>
         <v>UPDATE nclass SET classcat = 'karate', pgmcat = 'privates', agecat = 'adult' WHERE nclass.class = 'Privates Adult'</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="H16" t="str">
+        <f t="shared" si="1"/>
+        <v>update nclasspays set classseq = 15 where class = 'Privates Adult';</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>31</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>27</v>
       </c>
-      <c r="F17" t="str">
+      <c r="G17" t="str">
         <f t="shared" si="0"/>
         <v>UPDATE nclass SET classcat = 'karate', pgmcat = 'privates', agecat = 'children' WHERE nclass.class = 'Privates Children'</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v>update nclasspays set classseq = 16 where class = 'Privates Children';</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>29</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>28</v>
       </c>
-      <c r="F18" t="str">
+      <c r="G18" t="str">
         <f t="shared" si="0"/>
         <v>UPDATE nclass SET classcat = 'karate', pgmcat = 'other', agecat = 'children or adult' WHERE nclass.class = 'Saturday Only'</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="H18" t="str">
+        <f t="shared" si="1"/>
+        <v>update nclasspays set classseq = 17 where class = 'Saturday Only';</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>26</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>29</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>3</v>
       </c>
-      <c r="F19" t="str">
+      <c r="G19" t="str">
         <f t="shared" si="0"/>
         <v>UPDATE nclass SET classcat = 'special', pgmcat = 'other', agecat = 'adult' WHERE nclass.class = 'Self Defense'</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v>update nclasspays set classseq = 18 where class = 'Self Defense';</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>26</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>29</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>28</v>
       </c>
-      <c r="F20" t="str">
+      <c r="G20" t="str">
         <f t="shared" si="0"/>
         <v>UPDATE nclass SET classcat = 'special', pgmcat = 'other', agecat = 'children or adult' WHERE nclass.class = 'Special Needs'</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="H20" t="str">
+        <f t="shared" si="1"/>
+        <v>update nclasspays set classseq = 19 where class = 'Special Needs';</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>40</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>29</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>3</v>
       </c>
-      <c r="F21" t="str">
+      <c r="G21" t="str">
         <f t="shared" si="0"/>
         <v>UPDATE nclass SET classcat = 'wellness', pgmcat = 'other', agecat = 'adult' WHERE nclass.class = 'TaiChi'</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="H21" t="str">
+        <f t="shared" si="1"/>
+        <v>update nclasspays set classseq = 20 where class = 'TaiChi';</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>39</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>29</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>28</v>
       </c>
-      <c r="F22" t="str">
+      <c r="G22" t="str">
         <f t="shared" si="0"/>
         <v>UPDATE nclass SET classcat = 'fitness', pgmcat = 'other', agecat = 'children or adult' WHERE nclass.class = 'Zoomba'</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v>update nclasspays set classseq = 21 where class = 'Zoomba';</v>
       </c>
     </row>
   </sheetData>

--- a/sql/nclass.xlsx
+++ b/sql/nclass.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="56">
   <si>
     <t>Adult</t>
   </si>
@@ -142,13 +142,58 @@
   </si>
   <si>
     <t>wellness</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Adult ATP</t>
+  </si>
+  <si>
+    <t>Adult Basic</t>
+  </si>
+  <si>
+    <t>Adult Single Class</t>
+  </si>
+  <si>
+    <t>Adult Unlimited</t>
+  </si>
+  <si>
+    <t>BBT</t>
+  </si>
+  <si>
+    <t>Children Basic</t>
+  </si>
+  <si>
+    <t>Children Single BBT</t>
+  </si>
+  <si>
+    <t>Children Single Class</t>
+  </si>
+  <si>
+    <t>Children Single Ldr</t>
+  </si>
+  <si>
+    <t>Intro Karate</t>
+  </si>
+  <si>
+    <t>Leadership</t>
+  </si>
+  <si>
+    <t>Tai Chi Drop In</t>
+  </si>
+  <si>
+    <t>nclasslist</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,8 +328,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,8 +522,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5E5E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -580,6 +650,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -625,8 +710,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -948,15 +1042,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H22"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="108.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1495,7 +1591,285 @@
         <v>update nclasspays set classseq = 21 where class = 'Zoomba';</v>
       </c>
     </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" t="str">
+        <f>"update nclasspays set pgmseq = " &amp; A26 &amp; " where classid = '" &amp; B26 &amp; "';"</f>
+        <v>update nclasspays set pgmseq = 1 where classid = 'Adult ATP';</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>2</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" ref="H27:H47" si="2">"update nclasspays set pgmseq = " &amp; A27 &amp; " where classid = '" &amp; B27 &amp; "';"</f>
+        <v>update nclasspays set pgmseq = 2 where classid = 'Adult Basic';</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>3</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="2"/>
+        <v>update nclasspays set pgmseq = 3 where classid = 'Adult Single Class';</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>4</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="2"/>
+        <v>update nclasspays set pgmseq = 4 where classid = 'Adult Unlimited';</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>5</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="2"/>
+        <v>update nclasspays set pgmseq = 5 where classid = 'After School';</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>6</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="2"/>
+        <v>update nclasspays set pgmseq = 6 where classid = 'BBT';</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>7</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="2"/>
+        <v>update nclasspays set pgmseq = 7 where classid = 'Blackbelt Adult';</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>8</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="2"/>
+        <v>update nclasspays set pgmseq = 8 where classid = 'Blackbelt Jr';</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>9</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="2"/>
+        <v>update nclasspays set pgmseq = 9 where classid = 'Children Basic';</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>10</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="2"/>
+        <v>update nclasspays set pgmseq = 10 where classid = 'Children Single BBT';</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>11</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="2"/>
+        <v>update nclasspays set pgmseq = 11 where classid = 'Children Single Class';</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>12</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="2"/>
+        <v>update nclasspays set pgmseq = 12 where classid = 'Children Single Ldr';</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>13</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="2"/>
+        <v>update nclasspays set pgmseq = 13 where classid = 'Intro Karate';</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>14</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="2"/>
+        <v>update nclasspays set pgmseq = 14 where classid = 'Kickboxing';</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>15</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="2"/>
+        <v>update nclasspays set pgmseq = 15 where classid = 'Leadership';</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>16</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="2"/>
+        <v>update nclasspays set pgmseq = 16 where classid = 'Privates Adult';</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>17</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="2"/>
+        <v>update nclasspays set pgmseq = 17 where classid = 'Privates Children';</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>18</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="2"/>
+        <v>update nclasspays set pgmseq = 18 where classid = 'Self Defense';</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>19</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="2"/>
+        <v>update nclasspays set pgmseq = 19 where classid = 'Special Needs';</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>20</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="2"/>
+        <v>update nclasspays set pgmseq = 20 where classid = 'Tai Chi Drop In';</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>21</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="2"/>
+        <v>update nclasspays set pgmseq = 21 where classid = 'TaiChi';</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>22</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="2"/>
+        <v>update nclasspays set pgmseq = 22 where classid = 'Zoomba';</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sql/nclass.xlsx
+++ b/sql/nclass.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="61">
   <si>
     <t>Adult</t>
   </si>
@@ -187,6 +187,21 @@
   </si>
   <si>
     <t>nclasslist</t>
+  </si>
+  <si>
+    <t>classcat</t>
+  </si>
+  <si>
+    <t>pgmcat</t>
+  </si>
+  <si>
+    <t>agecat</t>
+  </si>
+  <si>
+    <t>classseq</t>
+  </si>
+  <si>
+    <t>pgmseq</t>
   </si>
 </sst>
 </file>
@@ -535,7 +550,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -665,6 +680,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -710,7 +734,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -719,6 +743,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1042,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:XFD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1868,6 +1895,486 @@
         <v>update nclasspays set pgmseq = 22 where classid = 'Zoomba';</v>
       </c>
     </row>
+    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>11</v>
+      </c>
+      <c r="B51" s="2">
+        <v>8</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" s="4" t="str">
+        <f xml:space="preserve"> "insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( " &amp; A51 &amp; ", " &amp; B51 &amp; ", '" &amp; C51 &amp; "', '" &amp; D51 &amp; "',  '" &amp; E51 &amp; "');"</f>
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 11, 8, 'black', 'karate',  'children');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>12</v>
+      </c>
+      <c r="B52" s="2">
+        <v>2</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="4" t="str">
+        <f t="shared" ref="G52:G72" si="3" xml:space="preserve"> "insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( " &amp; A52 &amp; ", " &amp; B52 &amp; ", '" &amp; C52 &amp; "', '" &amp; D52 &amp; "',  '" &amp; E52 &amp; "');"</f>
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 12, 2, 'other', 'special',  'children or adult');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>4</v>
+      </c>
+      <c r="B53" s="2">
+        <v>9</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 4, 9, 'basic or leopard', 'karate',  'children');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>1</v>
+      </c>
+      <c r="B54" s="2">
+        <v>2</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 1, 2, 'adult', 'karate',  'adult');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>12</v>
+      </c>
+      <c r="B55" s="2">
+        <v>9</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 12, 9, 'other', 'special',  'children or adult');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>10</v>
+      </c>
+      <c r="B56" s="2">
+        <v>7</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 10, 7, 'black', 'karate',  'adult');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>12</v>
+      </c>
+      <c r="B57" s="2">
+        <v>6</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G57" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 12, 6, 'other', 'special',  'children or adult');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>12</v>
+      </c>
+      <c r="B58" s="2">
+        <v>15</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 12, 15, 'other', 'special',  'children or adult');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>12</v>
+      </c>
+      <c r="B59" s="2">
+        <v>7</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G59" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 12, 7, 'other', 'special',  'children or adult');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>8</v>
+      </c>
+      <c r="B60" s="2">
+        <v>6</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G60" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 8, 6, 'bbt2', 'karate',  'children');</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>8</v>
+      </c>
+      <c r="B61" s="2">
+        <v>15</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G61" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 8, 15, 'bbt2', 'karate',  'children');</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>9</v>
+      </c>
+      <c r="B62" s="2">
+        <v>15</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G62" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 9, 15, 'bbt3', 'karate',  'children');</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>9</v>
+      </c>
+      <c r="B63" s="2">
+        <v>6</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G63" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 9, 6, 'bbt3', 'karate',  'children');</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>6</v>
+      </c>
+      <c r="B64" s="2">
+        <v>9</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G64" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 6, 9, 'bbt1', 'karate',  'children');</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>1</v>
+      </c>
+      <c r="B65" s="2">
+        <v>3</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 1, 3, 'adult', 'karate',  'adult');</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>1</v>
+      </c>
+      <c r="B66" s="2">
+        <v>4</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 1, 4, 'adult', 'karate',  'adult');</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>17</v>
+      </c>
+      <c r="B67" s="2">
+        <v>9</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G67" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 17, 9, 'other', 'karate',  'children or adult');</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>3</v>
+      </c>
+      <c r="B68" s="2">
+        <v>9</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G68" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 3, 9, 'basic or dragon', 'karate',  'children');</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>15</v>
+      </c>
+      <c r="B69" s="2">
+        <v>16</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 15, 16, 'privates', 'karate',  'adult');</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>20</v>
+      </c>
+      <c r="B70" s="2">
+        <v>21</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G70" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 20, 21, 'other', 'wellness',  'adult');</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>9</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G71" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 9, 0, 'bbt3', 'karate',  'children');</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>14</v>
+      </c>
+      <c r="B72" s="2">
+        <v>2</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G72" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 14, 2, 'other', 'fitness',  'children or adult');</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/sql/nclass.xlsx
+++ b/sql/nclass.xlsx
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="nclass" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nclass!$A$48:$G$65</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="59">
   <si>
     <t>Adult</t>
   </si>
@@ -58,12 +61,6 @@
   </si>
   <si>
     <t>Blackbelt Jr</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>Injured</t>
   </si>
   <si>
     <t>Kickboxing</t>
@@ -207,7 +204,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1069,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:XFD62"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49:G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,13 +1081,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1126,20 +1123,20 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G22" si="0">"UPDATE nclass SET classcat = '"&amp;C3&amp; "', pgmcat = '" &amp; D3 &amp; "', agecat = '" &amp; E3 &amp;"' WHERE nclass.class = '" &amp; B3 &amp;"'"</f>
+        <f t="shared" ref="G3:G20" si="0">"UPDATE nclass SET classcat = '"&amp;C3&amp; "', pgmcat = '" &amp; D3 &amp; "', agecat = '" &amp; E3 &amp;"' WHERE nclass.class = '" &amp; B3 &amp;"'"</f>
         <v>UPDATE nclass SET classcat = 'special', pgmcat = 'other', agecat = 'children' WHERE nclass.class = 'After School'</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H22" si="1">"update nclasspays set classseq = " &amp; A3 &amp; " where class = '" &amp; B3 &amp; "';"</f>
+        <f t="shared" ref="H3:H20" si="1">"update nclasspays set classseq = " &amp; A3 &amp; " where class = '" &amp; B3 &amp; "';"</f>
         <v>update nclasspays set classseq = 2 where class = 'After School';</v>
       </c>
     </row>
@@ -1154,10 +1151,10 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
@@ -1179,10 +1176,10 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -1204,10 +1201,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
@@ -1229,10 +1226,10 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -1254,10 +1251,10 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -1279,10 +1276,10 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
@@ -1304,10 +1301,10 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
@@ -1329,7 +1326,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
@@ -1354,10 +1351,10 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
@@ -1370,82 +1367,82 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
         <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE nclass SET classcat = 'special', pgmcat = 'other', agecat = 'children or adult' WHERE nclass.class = 'Inactive'</v>
+        <v>UPDATE nclass SET classcat = 'fitness', pgmcat = 'other', agecat = 'children or adult' WHERE nclass.class = 'Kickboxing'</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
-        <v>update nclasspays set classseq = 12 where class = 'Inactive';</v>
+        <v>update nclasspays set classseq = 14 where class = 'Kickboxing';</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
         <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE nclass SET classcat = 'special', pgmcat = 'other', agecat = 'children or adult' WHERE nclass.class = 'Injured'</v>
+        <v>UPDATE nclass SET classcat = 'karate', pgmcat = 'privates', agecat = 'adult' WHERE nclass.class = 'Privates Adult'</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
-        <v>update nclasspays set classseq = 13 where class = 'Injured';</v>
+        <v>update nclasspays set classseq = 15 where class = 'Privates Adult';</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
         <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE nclass SET classcat = 'fitness', pgmcat = 'other', agecat = 'children or adult' WHERE nclass.class = 'Kickboxing'</v>
+        <v>UPDATE nclass SET classcat = 'karate', pgmcat = 'privates', agecat = 'children' WHERE nclass.class = 'Privates Children'</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="1"/>
-        <v>update nclasspays set classseq = 14 where class = 'Kickboxing';</v>
+        <v>update nclasspays set classseq = 16 where class = 'Privates Children';</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -1454,744 +1451,736 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE nclass SET classcat = 'karate', pgmcat = 'privates', agecat = 'adult' WHERE nclass.class = 'Privates Adult'</v>
+        <v>UPDATE nclass SET classcat = 'karate', pgmcat = 'other', agecat = 'children or adult' WHERE nclass.class = 'Saturday Only'</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="1"/>
-        <v>update nclasspays set classseq = 15 where class = 'Privates Adult';</v>
+        <v>update nclasspays set classseq = 17 where class = 'Saturday Only';</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE nclass SET classcat = 'karate', pgmcat = 'privates', agecat = 'children' WHERE nclass.class = 'Privates Children'</v>
+        <v>UPDATE nclass SET classcat = 'special', pgmcat = 'other', agecat = 'adult' WHERE nclass.class = 'Self Defense'</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="1"/>
-        <v>update nclasspays set classseq = 16 where class = 'Privates Children';</v>
+        <v>update nclasspays set classseq = 18 where class = 'Self Defense';</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE nclass SET classcat = 'karate', pgmcat = 'other', agecat = 'children or adult' WHERE nclass.class = 'Saturday Only'</v>
+        <v>UPDATE nclass SET classcat = 'special', pgmcat = 'other', agecat = 'children or adult' WHERE nclass.class = 'Special Needs'</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="1"/>
-        <v>update nclasspays set classseq = 17 where class = 'Saturday Only';</v>
+        <v>update nclasspays set classseq = 19 where class = 'Special Needs';</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
         <v>3</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE nclass SET classcat = 'special', pgmcat = 'other', agecat = 'adult' WHERE nclass.class = 'Self Defense'</v>
+        <v>UPDATE nclass SET classcat = 'wellness', pgmcat = 'other', agecat = 'adult' WHERE nclass.class = 'TaiChi'</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="1"/>
-        <v>update nclasspays set classseq = 18 where class = 'Self Defense';</v>
+        <v>update nclasspays set classseq = 20 where class = 'TaiChi';</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
         <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" t="s">
-        <v>28</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE nclass SET classcat = 'special', pgmcat = 'other', agecat = 'children or adult' WHERE nclass.class = 'Special Needs'</v>
+        <v>UPDATE nclass SET classcat = 'fitness', pgmcat = 'other', agecat = 'children or adult' WHERE nclass.class = 'Zoomba'</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="1"/>
-        <v>update nclasspays set classseq = 19 where class = 'Special Needs';</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
+        <v>update nclasspays set classseq = 21 where class = 'Zoomba';</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" t="s">
+    </row>
+    <row r="24" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" t="str">
+        <f>"update nclasspays set pgmseq = " &amp; A24 &amp; " where classid = '" &amp; B24 &amp; "';"</f>
+        <v>update nclasspays set pgmseq = 1 where classid = 'Adult ATP';</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>2</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" ref="H25:H45" si="2">"update nclasspays set pgmseq = " &amp; A25 &amp; " where classid = '" &amp; B25 &amp; "';"</f>
+        <v>update nclasspays set pgmseq = 2 where classid = 'Adult Basic';</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>3</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="0"/>
-        <v>UPDATE nclass SET classcat = 'wellness', pgmcat = 'other', agecat = 'adult' WHERE nclass.class = 'TaiChi'</v>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" si="1"/>
-        <v>update nclasspays set classseq = 20 where class = 'TaiChi';</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="0"/>
-        <v>UPDATE nclass SET classcat = 'fitness', pgmcat = 'other', agecat = 'children or adult' WHERE nclass.class = 'Zoomba'</v>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="1"/>
-        <v>update nclasspays set classseq = 21 where class = 'Zoomba';</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>1</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>43</v>
       </c>
       <c r="H26" t="str">
-        <f>"update nclasspays set pgmseq = " &amp; A26 &amp; " where classid = '" &amp; B26 &amp; "';"</f>
-        <v>update nclasspays set pgmseq = 1 where classid = 'Adult ATP';</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>update nclasspays set pgmseq = 3 where classid = 'Adult Single Class';</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>44</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" ref="H27:H47" si="2">"update nclasspays set pgmseq = " &amp; A27 &amp; " where classid = '" &amp; B27 &amp; "';"</f>
-        <v>update nclasspays set pgmseq = 2 where classid = 'Adult Basic';</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>update nclasspays set pgmseq = 4 where classid = 'Adult Unlimited';</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="2"/>
-        <v>update nclasspays set pgmseq = 3 where classid = 'Adult Single Class';</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>update nclasspays set pgmseq = 5 where classid = 'After School';</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="2"/>
-        <v>update nclasspays set pgmseq = 4 where classid = 'Adult Unlimited';</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>update nclasspays set pgmseq = 6 where classid = 'BBT';</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="2"/>
-        <v>update nclasspays set pgmseq = 5 where classid = 'After School';</v>
+        <v>update nclasspays set pgmseq = 7 where classid = 'Blackbelt Adult';</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="2"/>
-        <v>update nclasspays set pgmseq = 6 where classid = 'BBT';</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>update nclasspays set pgmseq = 8 where classid = 'Blackbelt Jr';</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="2"/>
-        <v>update nclasspays set pgmseq = 7 where classid = 'Blackbelt Adult';</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>update nclasspays set pgmseq = 9 where classid = 'Children Basic';</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="2"/>
-        <v>update nclasspays set pgmseq = 8 where classid = 'Blackbelt Jr';</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>update nclasspays set pgmseq = 10 where classid = 'Children Single BBT';</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>48</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="2"/>
-        <v>update nclasspays set pgmseq = 9 where classid = 'Children Basic';</v>
+        <v>update nclasspays set pgmseq = 11 where classid = 'Children Single Class';</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="2"/>
-        <v>update nclasspays set pgmseq = 10 where classid = 'Children Single BBT';</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>update nclasspays set pgmseq = 12 where classid = 'Children Single Ldr';</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>50</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="2"/>
-        <v>update nclasspays set pgmseq = 11 where classid = 'Children Single Class';</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>update nclasspays set pgmseq = 13 where classid = 'Intro Karate';</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="2"/>
-        <v>update nclasspays set pgmseq = 12 where classid = 'Children Single Ldr';</v>
+        <v>update nclasspays set pgmseq = 14 where classid = 'Kickboxing';</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="2"/>
-        <v>update nclasspays set pgmseq = 13 where classid = 'Intro Karate';</v>
+        <v>update nclasspays set pgmseq = 15 where classid = 'Leadership';</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
+        <v>16</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="2"/>
-        <v>update nclasspays set pgmseq = 14 where classid = 'Kickboxing';</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>update nclasspays set pgmseq = 16 where classid = 'Privates Adult';</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
+        <v>17</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="2"/>
-        <v>update nclasspays set pgmseq = 15 where classid = 'Leadership';</v>
+        <v>update nclasspays set pgmseq = 17 where classid = 'Privates Children';</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="2"/>
-        <v>update nclasspays set pgmseq = 16 where classid = 'Privates Adult';</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>update nclasspays set pgmseq = 18 where classid = 'Self Defense';</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="2"/>
-        <v>update nclasspays set pgmseq = 17 where classid = 'Privates Children';</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>update nclasspays set pgmseq = 19 where classid = 'Special Needs';</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="2"/>
-        <v>update nclasspays set pgmseq = 18 where classid = 'Self Defense';</v>
+        <v>update nclasspays set pgmseq = 20 where classid = 'Tai Chi Drop In';</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
+        <v>21</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="2"/>
-        <v>update nclasspays set pgmseq = 19 where classid = 'Special Needs';</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>update nclasspays set pgmseq = 21 where classid = 'TaiChi';</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
+        <v>22</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="2"/>
-        <v>update nclasspays set pgmseq = 20 where classid = 'Tai Chi Drop In';</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
-        <v>21</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H46" t="str">
-        <f t="shared" si="2"/>
-        <v>update nclasspays set pgmseq = 21 where classid = 'TaiChi';</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>22</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H47" t="str">
-        <f t="shared" si="2"/>
         <v>update nclasspays set pgmseq = 22 where classid = 'Zoomba';</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="1" t="s">
+    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="B48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>58</v>
+    </row>
+    <row r="49" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>11</v>
+      </c>
+      <c r="B49" s="2">
+        <v>8</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="4" t="str">
+        <f xml:space="preserve"> "insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( " &amp; A49 &amp; ", " &amp; B49 &amp; ", '" &amp; C49 &amp; "', '" &amp; D49 &amp; "',  '" &amp; E49 &amp; "');"</f>
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 11, 8, 'black', 'karate',  'children');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>4</v>
+      </c>
+      <c r="B50" s="2">
+        <v>9</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" s="4" t="str">
+        <f t="shared" ref="G50:G65" si="3" xml:space="preserve"> "insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( " &amp; A50 &amp; ", " &amp; B50 &amp; ", '" &amp; C50 &amp; "', '" &amp; D50 &amp; "',  '" &amp; E50 &amp; "');"</f>
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 4, 9, 'basic or leopard', 'karate',  'children');</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B51" s="2">
+        <v>2</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 1, 2, 'adult', 'karate',  'adult');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>10</v>
+      </c>
+      <c r="B52" s="2">
+        <v>7</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 10, 7, 'black', 'karate',  'adult');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
         <v>8</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G51" s="4" t="str">
-        <f xml:space="preserve"> "insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( " &amp; A51 &amp; ", " &amp; B51 &amp; ", '" &amp; C51 &amp; "', '" &amp; D51 &amp; "',  '" &amp; E51 &amp; "');"</f>
-        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 11, 8, 'black', 'karate',  'children');</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
-        <v>12</v>
-      </c>
-      <c r="B52" s="2">
-        <v>2</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52" s="4" t="str">
-        <f t="shared" ref="G52:G72" si="3" xml:space="preserve"> "insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( " &amp; A52 &amp; ", " &amp; B52 &amp; ", '" &amp; C52 &amp; "', '" &amp; D52 &amp; "',  '" &amp; E52 &amp; "');"</f>
-        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 12, 2, 'other', 'special',  'children or adult');</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <v>4</v>
-      </c>
       <c r="B53" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G53" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 4, 9, 'basic or leopard', 'karate',  'children');</v>
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 8, 6, 'bbt2', 'karate',  'children');</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B54" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="G54" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 1, 2, 'adult', 'karate',  'adult');</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 8, 15, 'bbt2', 'karate',  'children');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B55" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G55" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 12, 9, 'other', 'special',  'children or adult');</v>
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 9, 15, 'bbt3', 'karate',  'children');</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B56" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="G56" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 10, 7, 'black', 'karate',  'adult');</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 9, 6, 'bbt3', 'karate',  'children');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B57" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G57" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 12, 6, 'other', 'special',  'children or adult');</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 6, 9, 'bbt1', 'karate',  'children');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B58" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="G58" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 12, 15, 'other', 'special',  'children or adult');</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 1, 3, 'adult', 'karate',  'adult');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B59" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="G59" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 12, 7, 'other', 'special',  'children or adult');</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 1, 4, 'adult', 'karate',  'adult');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B60" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G60" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 8, 6, 'bbt2', 'karate',  'children');</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 17, 9, 'other', 'karate',  'children or adult');</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B61" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G61" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 8, 15, 'bbt2', 'karate',  'children');</v>
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 3, 9, 'basic or dragon', 'karate',  'children');</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B62" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="G62" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 9, 15, 'bbt3', 'karate',  'children');</v>
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 15, 16, 'privates', 'karate',  'adult');</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B63" s="2">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="G63" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 9, 6, 'bbt3', 'karate',  'children');</v>
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 20, 21, 'other', 'wellness',  'adult');</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B64" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>34</v>
@@ -2200,182 +2189,36 @@
         <v>2</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G64" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 6, 9, 'bbt1', 'karate',  'children');</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 9, 0, 'bbt3', 'karate',  'children');</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B65" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="G65" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 1, 3, 'adult', 'karate',  'adult');</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
-        <v>1</v>
-      </c>
-      <c r="B66" s="2">
-        <v>4</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 1, 4, 'adult', 'karate',  'adult');</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
-        <v>17</v>
-      </c>
-      <c r="B67" s="2">
-        <v>9</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G67" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 17, 9, 'other', 'karate',  'children or adult');</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
-        <v>3</v>
-      </c>
-      <c r="B68" s="2">
-        <v>9</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G68" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 3, 9, 'basic or dragon', 'karate',  'children');</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
-        <v>15</v>
-      </c>
-      <c r="B69" s="2">
-        <v>16</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G69" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 15, 16, 'privates', 'karate',  'adult');</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
-        <v>20</v>
-      </c>
-      <c r="B70" s="2">
-        <v>21</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G70" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 20, 21, 'other', 'wellness',  'adult');</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
-        <v>9</v>
-      </c>
-      <c r="B71" s="2">
-        <v>0</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G71" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 9, 0, 'bbt3', 'karate',  'children');</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
-        <v>14</v>
-      </c>
-      <c r="B72" s="2">
-        <v>2</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G72" s="4" t="str">
-        <f t="shared" si="3"/>
         <v>insert into `nclasspgm` ( `classid`, `pgmid`, `pgmcat`, `classcat`, `agecat`) VALUES ( 14, 2, 'other', 'fitness',  'children or adult');</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A48:G65"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
